--- a/biology/Zoologie/Conopsis_amphisticha/Conopsis_amphisticha.xlsx
+++ b/biology/Zoologie/Conopsis_amphisticha/Conopsis_amphisticha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conopsis amphisticha est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conopsis amphisticha est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États d'Oaxaca et de Puebla dans le sud du Mexique. Elle est présente entre 1 700 et 3 080 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États d'Oaxaca et de Puebla dans le sud du Mexique. Elle est présente entre 1 700 et 3 080 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conopsis amphisticha[1] présente un dos brun sur lequel figurent généralement deux séries de taches sur la partie antérieure du corps et un motif en forme de mosaïque sur le tiers postérieur. Son ventre est jaunâtre avec des taches noires. Cette espèce peut être confondue avec Conopsis biserialis, toutefois leurs aires de répartition ne se chevauchent pas.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conopsis amphisticha présente un dos brun sur lequel figurent généralement deux séries de taches sur la partie antérieure du corps et un motif en forme de mosaïque sur le tiers postérieur. Son ventre est jaunâtre avec des taches noires. Cette espèce peut être confondue avec Conopsis biserialis, toutefois leurs aires de répartition ne se chevauchent pas.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith &amp; Laufe, 1945 : Notes on a herpetological collection from Oaxaca. Herpetologica, vol. 3, n. 1, p. 1-13 (introduction).</t>
         </is>
